--- a/iris-visualization.xlsx
+++ b/iris-visualization.xlsx
@@ -2,21 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61500A5-B696-4625-BC7B-D52B5CEA5C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B0B059-16B2-4C6C-A534-E58EB53B7BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="histogram" sheetId="1" r:id="rId1"/>
     <sheet name="box-plot" sheetId="2" r:id="rId2"/>
+    <sheet name="box-plot-img" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'box-plot'!$B$2:$B$151</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'box-plot'!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'box-plot'!$C$2:$C$151</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="47">
   <si>
     <t>Sepal.Length</t>
   </si>
@@ -58,6 +67,120 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count of id</t>
+  </si>
+  <si>
+    <t>4.3-4.4</t>
+  </si>
+  <si>
+    <t>4.4-4.5</t>
+  </si>
+  <si>
+    <t>4.5-4.6</t>
+  </si>
+  <si>
+    <t>4.6-4.7</t>
+  </si>
+  <si>
+    <t>4.7-4.8</t>
+  </si>
+  <si>
+    <t>4.8-4.9</t>
+  </si>
+  <si>
+    <t>4.9-5</t>
+  </si>
+  <si>
+    <t>5-5.1</t>
+  </si>
+  <si>
+    <t>5.1-5.2</t>
+  </si>
+  <si>
+    <t>5.2-5.3</t>
+  </si>
+  <si>
+    <t>5.3-5.4</t>
+  </si>
+  <si>
+    <t>5.4-5.5</t>
+  </si>
+  <si>
+    <t>5.5-5.6</t>
+  </si>
+  <si>
+    <t>5.6-5.7</t>
+  </si>
+  <si>
+    <t>5.7-5.8</t>
+  </si>
+  <si>
+    <t>5.8-5.9</t>
+  </si>
+  <si>
+    <t>5.9-6</t>
+  </si>
+  <si>
+    <t>6-6.1</t>
+  </si>
+  <si>
+    <t>6.1-6.2</t>
+  </si>
+  <si>
+    <t>6.2-6.3</t>
+  </si>
+  <si>
+    <t>6.3-6.4</t>
+  </si>
+  <si>
+    <t>6.4-6.5</t>
+  </si>
+  <si>
+    <t>6.5-6.6</t>
+  </si>
+  <si>
+    <t>6.6-6.7</t>
+  </si>
+  <si>
+    <t>6.7-6.8</t>
+  </si>
+  <si>
+    <t>6.8-6.9</t>
+  </si>
+  <si>
+    <t>6.9-7</t>
+  </si>
+  <si>
+    <t>7-7.1</t>
+  </si>
+  <si>
+    <t>7.1-7.2</t>
+  </si>
+  <si>
+    <t>7.2-7.3</t>
+  </si>
+  <si>
+    <t>7.3-7.4</t>
+  </si>
+  <si>
+    <t>7.4-7.5</t>
+  </si>
+  <si>
+    <t>7.6-7.7</t>
+  </si>
+  <si>
+    <t>7.7-7.8</t>
+  </si>
+  <si>
+    <t>7.8-7.9</t>
   </si>
 </sst>
 </file>
@@ -547,9 +670,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -608,7 +736,2723 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[iris-visualization.xlsx]histogram!PivotTable1</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>histogram!$J$1:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>setosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>histogram!$I$3:$I$37</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>4.3-4.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4-4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5-4.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7-4.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8-4.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5-5.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1-5.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2-5.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3-5.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4-5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5-5.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6-5.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7-5.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8-5.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6-6.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1-6.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2-6.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3-6.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4-6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5-6.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6-6.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.7-6.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8-6.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7-7.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.1-7.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.2-7.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.3-7.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.4-7.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6-7.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7-7.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8-7.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>histogram!$J$3:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1976-49DD-9B0A-CB10745200C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>histogram!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>versicolor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>histogram!$I$3:$I$37</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>4.3-4.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4-4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5-4.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7-4.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8-4.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5-5.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1-5.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2-5.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3-5.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4-5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5-5.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6-5.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7-5.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8-5.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6-6.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1-6.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2-6.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3-6.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4-6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5-6.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6-6.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.7-6.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8-6.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7-7.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.1-7.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.2-7.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.3-7.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.4-7.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6-7.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7-7.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8-7.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>histogram!$K$3:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1976-49DD-9B0A-CB10745200C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>histogram!$L$1:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>virginica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>histogram!$I$3:$I$37</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>4.3-4.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4-4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5-4.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7-4.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8-4.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5-5.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1-5.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2-5.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3-5.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4-5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5-5.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6-5.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7-5.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8-5.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6-6.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1-6.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2-6.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3-6.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4-6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5-6.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6-6.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.7-6.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8-6.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7-7.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.1-7.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.2-7.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.3-7.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.4-7.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6-7.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7-7.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8-7.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>histogram!$L$3:$L$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1976-49DD-9B0A-CB10745200C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="868465328"/>
+        <c:axId val="864284608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="868465328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="864284608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="864284608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868465328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box and whisker</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Box and whisker</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{88A38F43-396E-41EE-98EA-9ED0B1F4AE48}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Sepal.Length</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC01D32-BE63-46A8-89E6-27C15C11302D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>71368</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>56699</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C178639-36CC-46D0-9D40-43F4063AEB7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10129768" y="640080"/>
+          <a:ext cx="2667571" cy="2545080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E032A7E5-B879-4106-8AD9-B3677F30C916}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4530090" y="354330"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -625,10 +3469,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2">
+        <xdr:cNvPr id="2" name="Straight Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FEF051-EE39-43F0-B6C4-A76F6E336D86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2F0A6E-3FB8-45BE-B0BD-9F0ABED8FB18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -636,8 +3480,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7349066" y="503767"/>
-          <a:ext cx="274320" cy="0"/>
+          <a:off x="7296573" y="502074"/>
+          <a:ext cx="275166" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -680,10 +3524,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Connector 5">
+        <xdr:cNvPr id="3" name="Straight Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E6A4F4-E2D3-4498-9028-0A9018171CA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339E1250-1CB6-4051-BEE4-46EDAF5D3795}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -691,8 +3535,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7480299" y="512232"/>
-          <a:ext cx="0" cy="529167"/>
+          <a:off x="7428652" y="510539"/>
+          <a:ext cx="0" cy="526627"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -735,10 +3579,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
+        <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B26232-7EA0-4AAF-B6AB-FD384A6D64CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3780E0D-824A-46E5-8167-88F38E95645D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -746,8 +3590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7137402" y="1045635"/>
-          <a:ext cx="677332" cy="969432"/>
+          <a:off x="7084909" y="1041402"/>
+          <a:ext cx="678178" cy="965198"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,10 +3649,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
+        <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E61D867-1AF7-4B91-ADC8-5CB5C3C3D9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78776559-3414-435C-A6E9-49BDBEF72C7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -816,8 +3660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7137402" y="2019302"/>
-          <a:ext cx="677332" cy="1325032"/>
+          <a:off x="7084909" y="2010835"/>
+          <a:ext cx="678178" cy="1319952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -875,10 +3719,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Connector 11">
+        <xdr:cNvPr id="6" name="Straight Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DB943E-B610-4FF2-B945-37969B6106B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D69A147-1665-4EFB-8831-0023C75CA00F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -886,8 +3730,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7336366" y="3611033"/>
-          <a:ext cx="274320" cy="0"/>
+          <a:off x="7283873" y="3595793"/>
+          <a:ext cx="275166" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -930,10 +3774,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Connector 12">
+        <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE91AF29-8950-4D13-8CE8-93542CD8E960}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF7AA05-2333-4B4D-A09E-30FC79A46897}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,8 +3785,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7471833" y="3348565"/>
-          <a:ext cx="0" cy="254002"/>
+          <a:off x="7420186" y="3335018"/>
+          <a:ext cx="0" cy="252309"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -985,10 +3829,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C0E7B8-836C-4824-9E0B-04DF4107ECD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412B2893-8381-4A14-8C76-0C3AEFA36455}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -996,8 +3840,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6612467" y="499533"/>
-          <a:ext cx="601133" cy="0"/>
+          <a:off x="6559127" y="497840"/>
+          <a:ext cx="601980" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1044,10 +3888,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20">
+        <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE670AF7-68A6-474D-B9D3-C6148A0CFBC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4B05BA-1D9F-41A2-9C40-B98A0ADA845F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,8 +3899,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6108700" y="355601"/>
-          <a:ext cx="512233" cy="330200"/>
+          <a:off x="6055360" y="354754"/>
+          <a:ext cx="512233" cy="328507"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1112,10 +3956,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FED1DF-D8D6-4751-A830-0DDE8BCC3C8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618C46CF-2530-462C-AE5E-267B7A169D53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,8 +3967,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6472767" y="1071033"/>
-          <a:ext cx="601133" cy="0"/>
+          <a:off x="6419427" y="1066800"/>
+          <a:ext cx="601980" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1171,10 +4015,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22">
+        <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8BF1D9A-03CF-43E5-95AF-01B3C57B0285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA65179D-838F-4C21-BBD2-0D163415A9DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1182,8 +4026,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6112934" y="931334"/>
-          <a:ext cx="512233" cy="330200"/>
+          <a:off x="6059594" y="927947"/>
+          <a:ext cx="512233" cy="328507"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1239,10 +4083,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32DB7B6-A7C4-4859-BBF9-B7AEDF1987C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1522F5-3BD5-468B-A2D2-B09AF6612A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,8 +4094,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6464300" y="2019299"/>
-          <a:ext cx="601133" cy="0"/>
+          <a:off x="6410960" y="2010832"/>
+          <a:ext cx="601980" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1298,10 +4142,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24">
+        <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A91132-C9B8-4007-981E-FA9A75DD5D3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B136272-2DFD-43E2-8C25-8E91AD21BBA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,8 +4153,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5846233" y="1866900"/>
-          <a:ext cx="770467" cy="330200"/>
+          <a:off x="5792046" y="1859280"/>
+          <a:ext cx="771314" cy="328507"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1366,10 +4210,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DF4988-C81F-4E73-AE35-61E7134379AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC58075-8102-41A0-BA18-A9AECD392128}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,8 +4221,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6481234" y="3331632"/>
-          <a:ext cx="601133" cy="0"/>
+          <a:off x="6427894" y="3318085"/>
+          <a:ext cx="601980" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1425,10 +4269,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="TextBox 26">
+        <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B618388F-7920-46F2-B2C3-7D968EA85119}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6616A0-5440-477D-A30C-02FEEE4292DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,8 +4280,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6146800" y="3179233"/>
-          <a:ext cx="486834" cy="330200"/>
+          <a:off x="6093460" y="3166533"/>
+          <a:ext cx="486834" cy="328507"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1493,10 +4337,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3BF540-7E5D-40E4-A2BB-99A41BFB567F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2092A19-1327-4383-8CF4-52DF4EF95019}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,8 +4348,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6574367" y="3602566"/>
-          <a:ext cx="601133" cy="0"/>
+          <a:off x="6521027" y="3587326"/>
+          <a:ext cx="601980" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1552,10 +4396,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextBox 28">
+        <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B831B5-0386-4B6A-BB5E-9CA4D4B3A437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BFBC12-DF7A-4F74-8A92-12CFBEC99337}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,8 +4407,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6070600" y="3458634"/>
-          <a:ext cx="512233" cy="330200"/>
+          <a:off x="6016413" y="3444241"/>
+          <a:ext cx="513080" cy="328506"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1620,10 +4464,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Right Brace 30">
+        <xdr:cNvPr id="18" name="Right Brace 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D82A7BC-B1BE-4595-BD17-4DAE750E999C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C30D6C9-62DB-4BCD-A84B-CFC4975EFC10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,8 +4475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7903633" y="1045633"/>
-          <a:ext cx="296334" cy="2311400"/>
+          <a:off x="7851986" y="1041400"/>
+          <a:ext cx="297181" cy="2302086"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -1686,10 +4530,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="TextBox 31">
+        <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4E9C1B-722A-41C5-A0B8-9A83E9FDBF12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E117F986-7F60-4A33-ABCC-663F46C660FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,8 +4541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8377767" y="2027767"/>
-          <a:ext cx="1087966" cy="685800"/>
+          <a:off x="8326967" y="2019300"/>
+          <a:ext cx="1088813" cy="683260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1740,6 +4584,1636 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="George Mount" refreshedDate="43986.728233564812" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="150" xr:uid="{0BB93CB8-9243-4E51-BF82-3F2147677861}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F151" sheet="histogram"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="150"/>
+    </cacheField>
+    <cacheField name="Species" numFmtId="0">
+      <sharedItems count="3">
+        <s v="setosa"/>
+        <s v="versicolor"/>
+        <s v="virginica"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sepal.Length" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.3" maxValue="7.9" count="35">
+        <n v="5.0999999999999996"/>
+        <n v="4.9000000000000004"/>
+        <n v="4.7"/>
+        <n v="4.5999999999999996"/>
+        <n v="5"/>
+        <n v="5.4"/>
+        <n v="4.4000000000000004"/>
+        <n v="4.8"/>
+        <n v="4.3"/>
+        <n v="5.8"/>
+        <n v="5.7"/>
+        <n v="5.2"/>
+        <n v="5.5"/>
+        <n v="4.5"/>
+        <n v="5.3"/>
+        <n v="7"/>
+        <n v="6.4"/>
+        <n v="6.9"/>
+        <n v="6.5"/>
+        <n v="6.3"/>
+        <n v="6.6"/>
+        <n v="5.9"/>
+        <n v="6"/>
+        <n v="6.1"/>
+        <n v="5.6"/>
+        <n v="6.7"/>
+        <n v="6.2"/>
+        <n v="6.8"/>
+        <n v="7.1"/>
+        <n v="7.6"/>
+        <n v="7.3"/>
+        <n v="7.2"/>
+        <n v="7.7"/>
+        <n v="7.4"/>
+        <n v="7.9"/>
+      </sharedItems>
+      <fieldGroup base="2">
+        <rangePr startNum="4.3" endNum="7.9" groupInterval="0.1"/>
+        <groupItems count="38">
+          <s v="&lt;4.3"/>
+          <s v="4.3-4.4"/>
+          <s v="4.4-4.5"/>
+          <s v="4.5-4.6"/>
+          <s v="4.6-4.7"/>
+          <s v="4.7-4.8"/>
+          <s v="4.8-4.9"/>
+          <s v="4.9-5"/>
+          <s v="5-5.1"/>
+          <s v="5.1-5.2"/>
+          <s v="5.2-5.3"/>
+          <s v="5.3-5.4"/>
+          <s v="5.4-5.5"/>
+          <s v="5.5-5.6"/>
+          <s v="5.6-5.7"/>
+          <s v="5.7-5.8"/>
+          <s v="5.8-5.9"/>
+          <s v="5.9-6"/>
+          <s v="6-6.1"/>
+          <s v="6.1-6.2"/>
+          <s v="6.2-6.3"/>
+          <s v="6.3-6.4"/>
+          <s v="6.4-6.5"/>
+          <s v="6.5-6.6"/>
+          <s v="6.6-6.7"/>
+          <s v="6.7-6.8"/>
+          <s v="6.8-6.9"/>
+          <s v="6.9-7"/>
+          <s v="7-7.1"/>
+          <s v="7.1-7.2"/>
+          <s v="7.2-7.3"/>
+          <s v="7.3-7.4"/>
+          <s v="7.4-7.5"/>
+          <s v="7.5-7.6"/>
+          <s v="7.6-7.7"/>
+          <s v="7.7-7.8"/>
+          <s v="7.8-7.9"/>
+          <s v="&gt;7.9"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Sepal.Width" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2" maxValue="4.4000000000000004"/>
+    </cacheField>
+    <cacheField name="Petal.Length" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="6.9"/>
+    </cacheField>
+    <cacheField name="Petal.Width" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="2.5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="150">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.5"/>
+    <n v="1.4"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="1.4"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3.2"/>
+    <n v="1.3"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.1"/>
+    <n v="1.5"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3.6"/>
+    <n v="1.4"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="3.9"/>
+    <n v="1.7"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.4"/>
+    <n v="1.4"/>
+    <n v="0.3"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3.4"/>
+    <n v="1.5"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="2.9"/>
+    <n v="1.4"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3.1"/>
+    <n v="1.5"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="3.7"/>
+    <n v="1.5"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="3.4"/>
+    <n v="1.6"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="3"/>
+    <n v="1.4"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="1.1000000000000001"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="4"/>
+    <n v="1.2"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="4.4000000000000004"/>
+    <n v="1.5"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="3.9"/>
+    <n v="1.3"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.5"/>
+    <n v="1.4"/>
+    <n v="0.3"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="3.8"/>
+    <n v="1.7"/>
+    <n v="0.3"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.8"/>
+    <n v="1.5"/>
+    <n v="0.3"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="3.4"/>
+    <n v="1.7"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.7"/>
+    <n v="1.5"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.6"/>
+    <n v="1"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.3"/>
+    <n v="1.7"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="3.4"/>
+    <n v="1.9"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="1.6"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3.4"/>
+    <n v="1.6"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="3.5"/>
+    <n v="1.5"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="3.4"/>
+    <n v="1.4"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3.2"/>
+    <n v="1.6"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="3.1"/>
+    <n v="1.6"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="3.4"/>
+    <n v="1.5"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="4.0999999999999996"/>
+    <n v="1.5"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="4.2"/>
+    <n v="1.4"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3.1"/>
+    <n v="1.5"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3.2"/>
+    <n v="1.2"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="3.5"/>
+    <n v="1.3"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3.6"/>
+    <n v="1.4"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="3"/>
+    <n v="1.3"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.4"/>
+    <n v="1.5"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3.5"/>
+    <n v="1.3"/>
+    <n v="0.3"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="2.2999999999999998"/>
+    <n v="1.3"/>
+    <n v="0.3"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="3.2"/>
+    <n v="1.3"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3.5"/>
+    <n v="1.6"/>
+    <n v="0.6"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.8"/>
+    <n v="1.9"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="3"/>
+    <n v="1.4"/>
+    <n v="0.3"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.8"/>
+    <n v="1.6"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.2"/>
+    <n v="1.4"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="0"/>
+    <x v="14"/>
+    <n v="3.7"/>
+    <n v="1.5"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3.3"/>
+    <n v="1.4"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="1"/>
+    <x v="15"/>
+    <n v="3.2"/>
+    <n v="4.7"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="3.2"/>
+    <n v="4.5"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="3.1"/>
+    <n v="4.9000000000000004"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="2.2999999999999998"/>
+    <n v="4"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="1"/>
+    <x v="18"/>
+    <n v="2.8"/>
+    <n v="4.5999999999999996"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2.8"/>
+    <n v="4.5"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="1"/>
+    <x v="19"/>
+    <n v="3.3"/>
+    <n v="4.7"/>
+    <n v="1.6"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2.4"/>
+    <n v="3.3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="1"/>
+    <x v="20"/>
+    <n v="2.9"/>
+    <n v="4.5999999999999996"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="2.7"/>
+    <n v="3.9"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="3.5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="1"/>
+    <x v="21"/>
+    <n v="3"/>
+    <n v="4.2"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="2.2000000000000002"/>
+    <n v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="1"/>
+    <x v="23"/>
+    <n v="2.9"/>
+    <n v="4.7"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="1"/>
+    <x v="24"/>
+    <n v="2.9"/>
+    <n v="3.6"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="1"/>
+    <x v="25"/>
+    <n v="3.1"/>
+    <n v="4.4000000000000004"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="1"/>
+    <x v="24"/>
+    <n v="3"/>
+    <n v="4.5"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2.7"/>
+    <n v="4.0999999999999996"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="1"/>
+    <x v="26"/>
+    <n v="2.2000000000000002"/>
+    <n v="4.5"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="1"/>
+    <x v="24"/>
+    <n v="2.5"/>
+    <n v="3.9"/>
+    <n v="1.1000000000000001"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="1"/>
+    <x v="21"/>
+    <n v="3.2"/>
+    <n v="4.8"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="1"/>
+    <x v="23"/>
+    <n v="2.8"/>
+    <n v="4"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="1"/>
+    <x v="19"/>
+    <n v="2.5"/>
+    <n v="4.9000000000000004"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="1"/>
+    <x v="23"/>
+    <n v="2.8"/>
+    <n v="4.7"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="2.9"/>
+    <n v="4.3"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <x v="1"/>
+    <x v="20"/>
+    <n v="3"/>
+    <n v="4.4000000000000004"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <x v="1"/>
+    <x v="27"/>
+    <n v="2.8"/>
+    <n v="4.8"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <x v="1"/>
+    <x v="25"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="1.7"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="2.9"/>
+    <n v="4.5"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2.6"/>
+    <n v="3.5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="2.4"/>
+    <n v="3.8"/>
+    <n v="1.1000000000000001"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="2.4"/>
+    <n v="3.7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2.7"/>
+    <n v="3.9"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="2.7"/>
+    <n v="5.0999999999999996"/>
+    <n v="1.6"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3"/>
+    <n v="4.5"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="3.4"/>
+    <n v="4.5"/>
+    <n v="1.6"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <x v="1"/>
+    <x v="25"/>
+    <n v="3.1"/>
+    <n v="4.7"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <x v="1"/>
+    <x v="19"/>
+    <n v="2.2999999999999998"/>
+    <n v="4.4000000000000004"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <x v="1"/>
+    <x v="24"/>
+    <n v="3"/>
+    <n v="4.0999999999999996"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="2.5"/>
+    <n v="4"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="2.6"/>
+    <n v="4.4000000000000004"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <x v="1"/>
+    <x v="23"/>
+    <n v="3"/>
+    <n v="4.5999999999999996"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2.6"/>
+    <n v="4"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2.2999999999999998"/>
+    <n v="3.3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <x v="1"/>
+    <x v="24"/>
+    <n v="2.7"/>
+    <n v="4.2"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3"/>
+    <n v="4.2"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2.9"/>
+    <n v="4.2"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <x v="1"/>
+    <x v="26"/>
+    <n v="2.9"/>
+    <n v="4.3"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2.5"/>
+    <n v="3"/>
+    <n v="1.1000000000000001"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2.8"/>
+    <n v="4.0999999999999996"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="2"/>
+    <x v="19"/>
+    <n v="3.3"/>
+    <n v="6"/>
+    <n v="2.5"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="2.7"/>
+    <n v="5.0999999999999996"/>
+    <n v="1.9"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <x v="2"/>
+    <x v="28"/>
+    <n v="3"/>
+    <n v="5.9"/>
+    <n v="2.1"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <x v="2"/>
+    <x v="19"/>
+    <n v="2.9"/>
+    <n v="5.6"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <x v="2"/>
+    <x v="18"/>
+    <n v="3"/>
+    <n v="5.8"/>
+    <n v="2.2000000000000002"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <x v="2"/>
+    <x v="29"/>
+    <n v="3"/>
+    <n v="6.6"/>
+    <n v="2.1"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2.5"/>
+    <n v="4.5"/>
+    <n v="1.7"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <x v="2"/>
+    <x v="30"/>
+    <n v="2.9"/>
+    <n v="6.3"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <x v="2"/>
+    <x v="25"/>
+    <n v="2.5"/>
+    <n v="5.8"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <x v="2"/>
+    <x v="31"/>
+    <n v="3.6"/>
+    <n v="6.1"/>
+    <n v="2.5"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <x v="2"/>
+    <x v="18"/>
+    <n v="3.2"/>
+    <n v="5.0999999999999996"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="2.7"/>
+    <n v="5.3"/>
+    <n v="1.9"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <x v="2"/>
+    <x v="27"/>
+    <n v="3"/>
+    <n v="5.5"/>
+    <n v="2.1"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="2.5"/>
+    <n v="5"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="2.8"/>
+    <n v="5.0999999999999996"/>
+    <n v="2.4"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="3.2"/>
+    <n v="5.3"/>
+    <n v="2.2999999999999998"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <x v="2"/>
+    <x v="18"/>
+    <n v="3"/>
+    <n v="5.5"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <x v="2"/>
+    <x v="32"/>
+    <n v="3.8"/>
+    <n v="6.7"/>
+    <n v="2.2000000000000002"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <x v="2"/>
+    <x v="32"/>
+    <n v="2.6"/>
+    <n v="6.9"/>
+    <n v="2.2999999999999998"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <x v="2"/>
+    <x v="22"/>
+    <n v="2.2000000000000002"/>
+    <n v="5"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <x v="2"/>
+    <x v="17"/>
+    <n v="3.2"/>
+    <n v="5.7"/>
+    <n v="2.2999999999999998"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <x v="2"/>
+    <x v="24"/>
+    <n v="2.8"/>
+    <n v="4.9000000000000004"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <x v="2"/>
+    <x v="32"/>
+    <n v="2.8"/>
+    <n v="6.7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <x v="2"/>
+    <x v="19"/>
+    <n v="2.7"/>
+    <n v="4.9000000000000004"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <x v="2"/>
+    <x v="25"/>
+    <n v="3.3"/>
+    <n v="5.7"/>
+    <n v="2.1"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <x v="2"/>
+    <x v="31"/>
+    <n v="3.2"/>
+    <n v="6"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <x v="2"/>
+    <x v="26"/>
+    <n v="2.8"/>
+    <n v="4.8"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <x v="2"/>
+    <x v="23"/>
+    <n v="3"/>
+    <n v="4.9000000000000004"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="2.8"/>
+    <n v="5.6"/>
+    <n v="2.1"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <x v="2"/>
+    <x v="31"/>
+    <n v="3"/>
+    <n v="5.8"/>
+    <n v="1.6"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <x v="2"/>
+    <x v="33"/>
+    <n v="2.8"/>
+    <n v="6.1"/>
+    <n v="1.9"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <x v="2"/>
+    <x v="34"/>
+    <n v="3.8"/>
+    <n v="6.4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="2.8"/>
+    <n v="5.6"/>
+    <n v="2.2000000000000002"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <x v="2"/>
+    <x v="19"/>
+    <n v="2.8"/>
+    <n v="5.0999999999999996"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <x v="2"/>
+    <x v="23"/>
+    <n v="2.6"/>
+    <n v="5.6"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <x v="2"/>
+    <x v="32"/>
+    <n v="3"/>
+    <n v="6.1"/>
+    <n v="2.2999999999999998"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <x v="2"/>
+    <x v="19"/>
+    <n v="3.4"/>
+    <n v="5.6"/>
+    <n v="2.4"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="3.1"/>
+    <n v="5.5"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <x v="2"/>
+    <x v="22"/>
+    <n v="3"/>
+    <n v="4.8"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <x v="2"/>
+    <x v="17"/>
+    <n v="3.1"/>
+    <n v="5.4"/>
+    <n v="2.1"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <x v="2"/>
+    <x v="25"/>
+    <n v="3.1"/>
+    <n v="5.6"/>
+    <n v="2.4"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <x v="2"/>
+    <x v="17"/>
+    <n v="3.1"/>
+    <n v="5.0999999999999996"/>
+    <n v="2.2999999999999998"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="2.7"/>
+    <n v="5.0999999999999996"/>
+    <n v="1.9"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <x v="2"/>
+    <x v="27"/>
+    <n v="3.2"/>
+    <n v="5.9"/>
+    <n v="2.2999999999999998"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <x v="2"/>
+    <x v="25"/>
+    <n v="3.3"/>
+    <n v="5.7"/>
+    <n v="2.5"/>
+  </r>
+  <r>
+    <n v="146"/>
+    <x v="2"/>
+    <x v="25"/>
+    <n v="3"/>
+    <n v="5.2"/>
+    <n v="2.2999999999999998"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <x v="2"/>
+    <x v="19"/>
+    <n v="2.5"/>
+    <n v="5"/>
+    <n v="1.9"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <x v="2"/>
+    <x v="18"/>
+    <n v="3"/>
+    <n v="5.2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <x v="2"/>
+    <x v="26"/>
+    <n v="3.4"/>
+    <n v="5.4"/>
+    <n v="2.2999999999999998"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <x v="2"/>
+    <x v="21"/>
+    <n v="3"/>
+    <n v="5.0999999999999996"/>
+    <n v="1.8"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B2F7B3D-59D3-4CC4-89A7-B338245E8979}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="I1:L37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="39">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="35">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of id" fld="0" subtotal="count" baseField="2" baseItem="4"/>
+  </dataFields>
+  <chartFormats count="9">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2039,13 +6513,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2064,8 +6545,14 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2084,8 +6571,20 @@
       <c r="F2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2104,8 +6603,16 @@
       <c r="F3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2124,8 +6631,16 @@
       <c r="F4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2144,8 +6659,16 @@
       <c r="F5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2164,8 +6687,16 @@
       <c r="F6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2184,8 +6715,16 @@
       <c r="F7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2204,8 +6743,16 @@
       <c r="F8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2224,8 +6771,20 @@
       <c r="F9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2244,8 +6803,18 @@
       <c r="F10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2264,8 +6833,18 @@
       <c r="F11">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2284,8 +6863,18 @@
       <c r="F12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2304,8 +6893,16 @@
       <c r="F13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2324,8 +6921,18 @@
       <c r="F14">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2344,8 +6951,18 @@
       <c r="F15">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2364,8 +6981,18 @@
       <c r="F16">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
+        <v>5</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2384,8 +7011,20 @@
       <c r="F17">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2404,8 +7043,20 @@
       <c r="F18">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2424,8 +7075,18 @@
       <c r="F19">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2444,8 +7105,18 @@
       <c r="F20">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
+        <v>4</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2464,8 +7135,18 @@
       <c r="F21">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
+        <v>4</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2484,8 +7165,18 @@
       <c r="F22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2504,8 +7195,18 @@
       <c r="F23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2">
+        <v>3</v>
+      </c>
+      <c r="L23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2524,8 +7225,18 @@
       <c r="F24">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2544,8 +7255,18 @@
       <c r="F25">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2564,8 +7285,16 @@
       <c r="F26">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
+        <v>2</v>
+      </c>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2584,8 +7313,18 @@
       <c r="F27">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
+        <v>3</v>
+      </c>
+      <c r="L27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2604,8 +7343,18 @@
       <c r="F28">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2624,8 +7373,18 @@
       <c r="F29">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2644,8 +7403,16 @@
       <c r="F30">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2664,8 +7431,16 @@
       <c r="F31">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2684,8 +7459,16 @@
       <c r="F32">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2704,8 +7487,16 @@
       <c r="F33">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2724,8 +7515,16 @@
       <c r="F34">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2744,8 +7543,16 @@
       <c r="F35">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2764,8 +7571,16 @@
       <c r="F36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2784,8 +7599,16 @@
       <c r="F37">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2805,7 +7628,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2825,7 +7648,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2845,7 +7668,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2865,7 +7688,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2885,7 +7708,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2905,7 +7728,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2925,7 +7748,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2945,7 +7768,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2965,7 +7788,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2985,7 +7808,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3005,7 +7828,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3025,7 +7848,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3045,7 +7868,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3065,7 +7888,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3085,7 +7908,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3105,7 +7928,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3125,7 +7948,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3145,7 +7968,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3165,7 +7988,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3185,7 +8008,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3205,7 +8028,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3225,7 +8048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3245,7 +8068,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3265,7 +8088,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3285,7 +8108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3305,7 +8128,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3325,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3345,7 +8168,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3365,7 +8188,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3385,7 +8208,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3405,7 +8228,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3425,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3445,7 +8268,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3465,7 +8288,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3485,7 +8308,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3505,7 +8328,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3525,7 +8348,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3545,7 +8368,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3565,7 +8388,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3585,7 +8408,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3605,7 +8428,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3625,7 +8448,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3645,7 +8468,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3665,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3685,7 +8508,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3705,7 +8528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3725,7 +8548,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3745,7 +8568,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3765,7 +8588,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3785,7 +8608,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3805,7 +8628,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3825,7 +8648,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3845,7 +8668,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3865,7 +8688,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3885,7 +8708,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3905,7 +8728,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3925,7 +8748,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3945,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3965,7 +8788,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3985,7 +8808,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4005,7 +8828,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4025,7 +8848,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4045,7 +8868,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4065,7 +8888,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4085,7 +8908,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4105,7 +8928,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4125,7 +8948,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4145,7 +8968,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4165,7 +8988,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4185,7 +9008,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4205,7 +9028,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4225,7 +9048,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4245,7 +9068,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4265,7 +9088,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4285,7 +9108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4305,7 +9128,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4325,7 +9148,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4345,7 +9168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4365,7 +9188,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4385,7 +9208,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4405,7 +9228,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4425,7 +9248,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4445,7 +9268,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4465,7 +9288,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4485,7 +9308,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4505,7 +9328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4525,7 +9348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4545,7 +9368,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4565,7 +9388,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4585,7 +9408,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4605,7 +9428,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4625,7 +9448,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4645,7 +9468,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4665,7 +9488,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4685,7 +9508,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4705,7 +9528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4725,7 +9548,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4745,7 +9568,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4765,7 +9588,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4785,7 +9608,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4805,7 +9628,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4825,7 +9648,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4845,7 +9668,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4865,7 +9688,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4885,7 +9708,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4905,7 +9728,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4925,7 +9748,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4945,7 +9768,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4965,7 +9788,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4985,7 +9808,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5005,7 +9828,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5025,7 +9848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5045,7 +9868,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5067,23 +9890,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D122ACB7-2560-4C1F-94D1-4D2E436EF581}">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="9" max="14" width="8.88671875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5103,7 +9924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5123,7 +9944,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5143,7 +9964,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5163,7 +9984,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5183,7 +10004,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5203,7 +10024,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5223,7 +10044,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5243,7 +10064,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5263,7 +10084,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5283,7 +10104,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5303,7 +10124,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5323,7 +10144,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5343,7 +10164,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5363,7 +10184,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5383,7 +10204,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5403,7 +10224,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5423,7 +10244,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5443,7 +10264,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5463,7 +10284,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5483,7 +10304,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5503,7 +10324,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5523,7 +10344,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5543,7 +10364,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5563,7 +10384,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5583,7 +10404,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5603,7 +10424,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5623,7 +10444,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5643,7 +10464,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5663,7 +10484,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5683,7 +10504,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5703,7 +10524,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5723,7 +10544,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5743,7 +10564,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5763,7 +10584,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5783,7 +10604,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5803,7 +10624,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5823,7 +10644,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5843,7 +10664,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5863,7 +10684,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5883,7 +10704,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5903,7 +10724,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5923,7 +10744,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5943,7 +10764,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5963,7 +10784,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5983,7 +10804,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6003,7 +10824,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6023,7 +10844,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6043,7 +10864,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6063,7 +10884,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6083,7 +10904,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6103,7 +10924,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6123,7 +10944,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6143,7 +10964,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6163,7 +10984,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6183,7 +11004,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6203,7 +11024,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6223,7 +11044,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6243,7 +11064,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6263,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6283,7 +11104,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6303,7 +11124,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6323,7 +11144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6343,7 +11164,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6363,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6383,7 +11204,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6403,7 +11224,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6423,7 +11244,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6443,7 +11264,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6463,7 +11284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6483,7 +11304,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6503,7 +11324,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6523,7 +11344,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6543,7 +11364,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6563,7 +11384,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6583,7 +11404,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6603,7 +11424,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6623,7 +11444,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6643,7 +11464,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6663,7 +11484,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6683,7 +11504,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6703,7 +11524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6723,7 +11544,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6743,7 +11564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6763,7 +11584,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6783,7 +11604,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6803,7 +11624,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6823,7 +11644,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6843,7 +11664,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6863,7 +11684,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6883,7 +11704,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6903,7 +11724,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6923,7 +11744,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6943,7 +11764,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6963,7 +11784,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6983,7 +11804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7003,7 +11824,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7023,7 +11844,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7043,7 +11864,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7063,7 +11884,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7083,7 +11904,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7103,7 +11924,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7123,7 +11944,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7143,7 +11964,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7163,7 +11984,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7183,7 +12004,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7203,7 +12024,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7223,7 +12044,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7243,7 +12064,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7263,7 +12084,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7283,7 +12104,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7303,7 +12124,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7323,7 +12144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7343,7 +12164,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7363,7 +12184,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7383,7 +12204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7403,7 +12224,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7423,7 +12244,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7443,7 +12264,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7463,7 +12284,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7483,7 +12304,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7503,7 +12324,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7523,7 +12344,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7543,7 +12364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7563,7 +12384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7583,7 +12404,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7603,7 +12424,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7623,7 +12444,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7643,7 +12464,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7663,7 +12484,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7683,7 +12504,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7703,7 +12524,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7723,7 +12544,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7743,7 +12564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7763,7 +12584,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7783,7 +12604,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7803,7 +12624,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7823,7 +12644,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7843,7 +12664,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7863,7 +12684,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7883,7 +12704,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7903,7 +12724,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7923,7 +12744,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7943,7 +12764,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7963,7 +12784,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7983,7 +12804,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8003,7 +12824,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8023,7 +12844,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8043,7 +12864,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8063,7 +12884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8083,7 +12904,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8107,4 +12928,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC6A8FF-9478-418D-8C9C-D5B088058E5F}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L19" activeCellId="1" sqref="K1 L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="8.796875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" hidden="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>